--- a/20-Skill Cooldowns 技能冷却.xlsx
+++ b/20-Skill Cooldowns 技能冷却.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Note" sheetId="1" r:id="rId1"/>
-    <sheet name="Note-JS" sheetId="4" r:id="rId2"/>
-    <sheet name="插件指令" sheetId="2" r:id="rId3"/>
-    <sheet name="插件参数" sheetId="3" r:id="rId4"/>
+    <sheet name="介绍" sheetId="5" r:id="rId1"/>
+    <sheet name="Note" sheetId="1" r:id="rId2"/>
+    <sheet name="Note-JS" sheetId="4" r:id="rId3"/>
+    <sheet name="插件指令" sheetId="2" r:id="rId4"/>
+    <sheet name="插件参数" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,15 +31,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="169">
+  <si>
+    <t>介绍</t>
+  </si>
+  <si>
+    <t>技能冷却是游戏添加的一种机制，用于防止重复使用技能（或者一些玩家称之为技能垃圾邮件）。</t>
+  </si>
+  <si>
+    <t>在战斗中使用后，有冷却时间的技能将在注释标签和/或插件命令设置的时间内不可选择。</t>
+  </si>
+  <si>
+    <t>这个持续时间必须经过才能使技能再次可用。</t>
+  </si>
+  <si>
+    <t>技能预热是该插件的另一个新增功能。</t>
+  </si>
+  <si>
+    <t>在一定的持续时间过去之前，带有热身的技能将无法使用。</t>
+  </si>
+  <si>
+    <t>这可以帮助防止从战斗一开始就使用强大的技能。</t>
+  </si>
+  <si>
+    <t>功能包括以下所有（但不限于）：</t>
+  </si>
+  <si>
+    <t>将冷却和热身添加到技能中。</t>
+  </si>
+  <si>
+    <t>通过插件参数控制它们在游戏中的显示方式。</t>
+  </si>
+  <si>
+    <t>创建特性对象效果，改变应用于技能的冷却和预热的最终值。</t>
+  </si>
+  <si>
+    <t>创建动作效果，改变应用于技能的现有冷却和预热持续时间。</t>
+  </si>
+  <si>
+    <t>为链接到其他技能、技能类型和/或影响全局所有技能的技能创建冷却。</t>
+  </si>
+  <si>
+    <t>插件命令，使您可以根据自己的喜好更改冷却和预热。</t>
+  </si>
+  <si>
+    <t>New Mechanics: Cooldowns and Warmups</t>
+  </si>
   <si>
     <t>Cooldowns</t>
   </si>
   <si>
+    <t>·在战斗开始和结束时，所有冷却都会被清除。</t>
+  </si>
+  <si>
+    <t>·冷却仅在战斗期间使用。</t>
+  </si>
+  <si>
+    <t>·使用后，技能可以同时影响整个技能类型或单位所有技能的冷却。</t>
+  </si>
+  <si>
+    <t>Warmups</t>
+  </si>
+  <si>
+    <t>·战斗开始后，预热将应用于受影响的技能。</t>
+  </si>
+  <si>
+    <t>·战斗结束后，所有的热身都会被清除。</t>
+  </si>
+  <si>
+    <t>·如果战斗中的单位有一个有利的开局（即先发制人），那么预热持续时间可以缩短。此值可以在插件参数中更改。</t>
+  </si>
+  <si>
+    <t>Both Cooldowns and Warmups</t>
+  </si>
+  <si>
+    <t>当技能在CD/WU上时，它不能被使用。</t>
+  </si>
+  <si>
+    <t>对于每个单元，CD/WU每转更新一次。</t>
+  </si>
+  <si>
+    <t>CD/WU不能应用于攻击和守卫技能。</t>
+  </si>
+  <si>
+    <t>CD/WU不能应用于带有&lt;Bypass CD/WU&gt;注释标签的技能。</t>
+  </si>
+  <si>
+    <t>CD/WU可能会受到各种数据库对象中发现的注释标记特征的影响。</t>
+  </si>
+  <si>
+    <t>CD/WU可以通过技能和带有注释标签效果的物品进行更改。</t>
+  </si>
+  <si>
+    <t>CD/WU具有可在插件参数中设置的最大持续时间。</t>
+  </si>
+  <si>
     <t>冷却</t>
-  </si>
-  <si>
-    <t>Warmups</t>
   </si>
   <si>
     <t>预热</t>
@@ -119,6 +207,58 @@
   </si>
   <si>
     <t>该技能将在战斗开始时，预热x回合</t>
+  </si>
+  <si>
+    <t>&lt;Once Per Turn&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">使该技能每回合只能使用一次。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·不能在TPB、ATB或CTB中使用。
+·不适用于战斗之外。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">当角色的回合数与技能上次使用的回合数相同时，无法使用该技能。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最适合与每回合执行多个动作的角色/敌人一起使用。</t>
+    </r>
   </si>
   <si>
     <t>冷却/预热 备注 特性</t>
@@ -1158,6 +1298,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>获取</t>
     </r>
     <r>
@@ -1201,6 +1349,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>将目标角色指定技能的</t>
     </r>
     <r>
@@ -1255,6 +1410,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>获取</t>
     </r>
     <r>
@@ -1298,6 +1461,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>将目标角色指定技能的</t>
     </r>
     <r>
@@ -1358,6 +1528,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>获取</t>
     </r>
     <r>
@@ -1401,6 +1579,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>将目标敌人指定技能的</t>
     </r>
     <r>
@@ -1455,6 +1640,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>获取</t>
     </r>
     <r>
@@ -1498,6 +1691,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>将目标敌人指定技能的</t>
     </r>
     <r>
@@ -1586,7 +1786,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1652,6 +1852,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1800,6 +2006,20 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2248,137 +2468,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2403,9 +2623,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2424,6 +2641,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2464,6 +2684,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2814,16 +3040,192 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A25:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="194" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="25" ht="14.25" spans="1:1">
+      <c r="A25" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" ht="18.75" spans="1:1">
+      <c r="A42" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="35.375" customWidth="1"/>
-    <col min="2" max="2" width="36.875" customWidth="1"/>
+    <col min="2" max="2" width="38.875" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="41.75" customWidth="1"/>
     <col min="5" max="5" width="33.125" customWidth="1"/>
@@ -2831,313 +3233,324 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" ht="18.75" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="18.75" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="27" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" ht="40.5" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="27" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" spans="1:1">
-      <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" ht="81" spans="1:4">
-      <c r="A14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="75" spans="1:3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="18.75" spans="1:1">
+      <c r="A13" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="81" spans="1:4">
-      <c r="A15" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>30</v>
+      <c r="A15" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:4">
-      <c r="A16" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>33</v>
+      <c r="A16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="17" ht="81" spans="1:4">
-      <c r="A17" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>36</v>
+      <c r="A17" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" ht="81" spans="1:4">
-      <c r="A18" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>39</v>
+      <c r="A18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="19" ht="81" spans="1:4">
-      <c r="A19" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" ht="54" spans="1:4">
-      <c r="A20" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>45</v>
+      <c r="A19" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" ht="81" spans="1:4">
+      <c r="A20" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" ht="54" spans="1:4">
-      <c r="A21" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>48</v>
+      <c r="A21" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" ht="54" spans="1:4">
-      <c r="A22" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" ht="18.75" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" ht="40.5" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="A22" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" ht="162" spans="1:5">
+      <c r="D22" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" ht="54" spans="1:4">
+      <c r="A23" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" spans="1:1">
+      <c r="A25" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" ht="40.5" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>59</v>
+        <v>84</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>61</v>
+        <v>87</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" ht="162" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>63</v>
+        <v>89</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" ht="81" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" ht="162" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>67</v>
+        <v>93</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>69</v>
+        <v>95</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" ht="81" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3147,13 +3560,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3165,107 +3578,107 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" ht="18.75" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" ht="18.75" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" ht="67.5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>72</v>
+        <v>102</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" ht="67.5" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>7</v>
+        <v>106</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" ht="67.5" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>7</v>
+        <v>108</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>7</v>
+        <v>111</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>7</v>
+        <v>114</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>7</v>
+        <v>116</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3275,13 +3688,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3294,177 +3707,177 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" ht="18.75" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" ht="20.25" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+        <v>132</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" ht="27" spans="1:3">
-      <c r="A15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>105</v>
+      <c r="A15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:3">
-      <c r="A16" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>108</v>
+      <c r="A16" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:3">
-      <c r="A17" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>111</v>
+      <c r="A17" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="18" ht="27" spans="1:3">
-      <c r="A18" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>114</v>
+      <c r="A18" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" ht="27" spans="1:3">
-      <c r="A20" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>119</v>
+      <c r="A20" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:3">
-      <c r="A21" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>122</v>
+      <c r="A21" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:3">
-      <c r="A22" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>125</v>
+      <c r="A22" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:3">
       <c r="A23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>128</v>
+        <v>157</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3474,13 +3887,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3493,50 +3906,50 @@
   <sheetData>
     <row r="1" ht="18" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" ht="27" spans="1:4">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="2" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:4">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
